--- a/mapping/claim_appoint_mapping.xlsx
+++ b/mapping/claim_appoint_mapping.xlsx
@@ -1430,7 +1430,7 @@
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4382,24 +4382,5 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="notEqual" id="{DF6B62A9-7100-492B-A150-1EDE31BDCFF7}">
-            <xm:f>#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightGrid">
-                  <fgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>A1:XFD1048576</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>